--- a/conejo/two_fictitious/output_test_a3.xlsx
+++ b/conejo/two_fictitious/output_test_a3.xlsx
@@ -543,7 +543,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.57085</v>
       </c>
     </row>
     <row r="11">
@@ -554,7 +554,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -565,7 +565,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>20.349806</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -785,7 +785,7 @@
         <v>155</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33">
@@ -796,7 +796,7 @@
         <v>155</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34">
@@ -807,7 +807,7 @@
         <v>350</v>
       </c>
       <c r="C34" t="n">
-        <v>114.58245</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -864,10 +864,10 @@
         <v>175</v>
       </c>
       <c r="C2" t="n">
-        <v>33.669806</v>
+        <v>28.233678</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.039033647</v>
+        <v>0.06610408500000001</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>175</v>
       </c>
       <c r="C3" t="n">
-        <v>-109.78433</v>
+        <v>-98.478176</v>
       </c>
       <c r="D3" t="n">
-        <v>0.66169552</v>
+        <v>0.62524317</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>175</v>
       </c>
       <c r="C4" t="n">
-        <v>-31.885472</v>
+        <v>-37.755503</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.029569805</v>
+        <v>0.2915129</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>-47.758796</v>
+        <v>-49.481842</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.34347434</v>
+        <v>0.33501137</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>175</v>
       </c>
       <c r="C6" t="n">
-        <v>-15.571399</v>
+        <v>-19.28448</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.016050291</v>
+        <v>0.40009643</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>175</v>
       </c>
       <c r="C7" t="n">
-        <v>41.240252</v>
+        <v>17.208918</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.3254738</v>
+        <v>0.050212304</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>-331.02459</v>
+        <v>-295.68709</v>
       </c>
       <c r="D8" t="n">
-        <v>1.1990524</v>
+        <v>0.21346799</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>175</v>
       </c>
       <c r="C9" t="n">
-        <v>-121.7588</v>
+        <v>-123.48184</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.28127033</v>
+        <v>0.27434002</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1024,10 +1024,10 @@
         <v>175</v>
       </c>
       <c r="C10" t="n">
-        <v>-102.88547</v>
+        <v>-108.7555</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.030613445</v>
+        <v>0.30180159</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>175</v>
       </c>
       <c r="C11" t="n">
-        <v>-151.5714</v>
+        <v>-155.28448</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0050993113</v>
+        <v>0.12711397</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>175</v>
       </c>
       <c r="C12" t="n">
-        <v>-104.65019</v>
+        <v>105.57085</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1084,13 +1084,13 @@
         <v>175</v>
       </c>
       <c r="C13" t="n">
-        <v>-157.5</v>
+        <v>-50.748914</v>
       </c>
       <c r="D13" t="n">
-        <v>2.2920805</v>
+        <v>0.041070496</v>
       </c>
       <c r="E13" t="n">
-        <v>5.1877561</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>175</v>
       </c>
       <c r="C14" t="n">
-        <v>-118.15019</v>
+        <v>-14.680236</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.2920805</v>
+        <v>-0.041070496</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1124,10 +1124,10 @@
         <v>400</v>
       </c>
       <c r="C15" t="n">
-        <v>-196.83859</v>
+        <v>-159.11116</v>
       </c>
       <c r="D15" t="n">
-        <v>0.43997786</v>
+        <v>0.12235833</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>-216.17995</v>
+        <v>-172.91068</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.43590898</v>
+        <v>0.15557659</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>400</v>
       </c>
       <c r="C17" t="n">
-        <v>-274.13285</v>
+        <v>-229.96035</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.16361722</v>
+        <v>0.20449932</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>-293.47421</v>
+        <v>-243.75987</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.0395041</v>
+        <v>0.23771759</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>500</v>
       </c>
       <c r="C19" t="n">
-        <v>-268.49858</v>
+        <v>-233.17131</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.89337236</v>
+        <v>0.092496465</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>500</v>
       </c>
       <c r="C20" t="n">
-        <v>-202.47286</v>
+        <v>-155.90019</v>
       </c>
       <c r="D20" t="n">
-        <v>0.91988114</v>
+        <v>0.082494416</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>500</v>
       </c>
       <c r="C21" t="n">
-        <v>-234.6512</v>
+        <v>-209.02215</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.017485524</v>
+        <v>0.059278198</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>500</v>
       </c>
       <c r="C22" t="n">
-        <v>-275.00297</v>
+        <v>-207.6484</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.6684154</v>
+        <v>0.33436978</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>500</v>
       </c>
       <c r="C23" t="n">
-        <v>-177.14978</v>
+        <v>-116.19346</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.6509299</v>
+        <v>0.27509158</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>500</v>
       </c>
       <c r="C24" t="n">
-        <v>-396.47286</v>
+        <v>-349.90019</v>
       </c>
       <c r="D24" t="n">
-        <v>1.292214</v>
+        <v>0.11588501</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>500</v>
       </c>
       <c r="C25" t="n">
-        <v>88.043154</v>
+        <v>100.23817</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.6147238</v>
+        <v>0.025335212</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>500</v>
       </c>
       <c r="C26" t="n">
-        <v>-290.53387</v>
+        <v>-278.96263</v>
       </c>
       <c r="D26" t="n">
-        <v>1.2356491</v>
+        <v>0.025748986</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>500</v>
       </c>
       <c r="C27" t="n">
-        <v>-290.53387</v>
+        <v>-278.96263</v>
       </c>
       <c r="D27" t="n">
-        <v>1.2356491</v>
+        <v>0.025748986</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>500</v>
       </c>
       <c r="C28" t="n">
-        <v>331.02459</v>
+        <v>295.68709</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.74227053</v>
+        <v>-0.13214685</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1404,13 +1404,13 @@
         <v>500</v>
       </c>
       <c r="C29" t="n">
-        <v>-450</v>
+        <v>-433.7336</v>
       </c>
       <c r="D29" t="n">
-        <v>1.9194017</v>
+        <v>0.008345129099999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.39588929</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>500</v>
       </c>
       <c r="C30" t="n">
-        <v>196.5703</v>
+        <v>239.07158</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.025873</v>
+        <v>0.072070335</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>500</v>
       </c>
       <c r="C31" t="n">
-        <v>-308.7694</v>
+        <v>-292.13739</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0070728</v>
+        <v>0.0051353748</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>500</v>
       </c>
       <c r="C32" t="n">
-        <v>-141.2306</v>
+        <v>-141.59621</v>
       </c>
       <c r="D32" t="n">
-        <v>0.19838355</v>
+        <v>-0.0048138281</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1484,10 +1484,10 @@
         <v>500</v>
       </c>
       <c r="C33" t="n">
-        <v>11.149169</v>
+        <v>-0.23926241</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.68021232</v>
+        <v>-0.01306673</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>500</v>
       </c>
       <c r="C34" t="n">
-        <v>11.149169</v>
+        <v>-0.23926241</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.68021232</v>
+        <v>-0.01306673</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>500</v>
       </c>
       <c r="C35" t="n">
-        <v>7.7851478</v>
+        <v>29.035789</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.7616287</v>
+        <v>0.062669857</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>500</v>
       </c>
       <c r="C36" t="n">
-        <v>7.7851478</v>
+        <v>29.035789</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.7616287</v>
+        <v>0.062669857</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>500</v>
       </c>
       <c r="C37" t="n">
-        <v>-56.214852</v>
+        <v>-34.964211</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.96889577</v>
+        <v>0.034468421</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>500</v>
       </c>
       <c r="C38" t="n">
-        <v>-56.214852</v>
+        <v>-34.964211</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.96889577</v>
+        <v>0.034468421</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>500</v>
       </c>
       <c r="C39" t="n">
-        <v>-158.7694</v>
+        <v>-158.40379</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.12847697</v>
+        <v>0.0031175268</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>722</v>
       </c>
       <c r="C40" t="n">
-        <v>-450</v>
+        <v>266.22972</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.1183202</v>
+        <v>0.087683185</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>97.768103</v>
+        <v>99.36561500000001</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.67141309</v>
+        <v>14.084416</v>
       </c>
     </row>
     <row r="3">
@@ -1683,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>97.729069</v>
+        <v>99.431719</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.67612686</v>
+        <v>13.689145</v>
       </c>
     </row>
     <row r="4">
@@ -1694,10 +1694,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>98.42979800000001</v>
+        <v>99.990858</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.43976814</v>
+        <v>34.863311</v>
       </c>
     </row>
     <row r="5">
@@ -1705,10 +1705,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>97.385595</v>
+        <v>99.76673</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.61547319</v>
+        <v>19.973338</v>
       </c>
     </row>
     <row r="6">
@@ -1716,10 +1716,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>97.738533</v>
+        <v>99.657128</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.64431044</v>
+        <v>17.293634</v>
       </c>
     </row>
     <row r="7">
@@ -1727,10 +1727,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>97.713019</v>
+        <v>99.831816</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.64622977</v>
+        <v>17.391765</v>
       </c>
     </row>
     <row r="8">
@@ -1741,7 +1741,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.81255566</v>
+        <v>30.881701</v>
       </c>
     </row>
     <row r="9">
@@ -1752,7 +1752,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.74871904</v>
+        <v>24.441879</v>
       </c>
     </row>
     <row r="10">
@@ -1760,10 +1760,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97.10432400000001</v>
+        <v>100.04107</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.48884404</v>
+        <v>32.81545</v>
       </c>
     </row>
     <row r="11">
@@ -1771,10 +1771,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97.70792</v>
+        <v>99.95893</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.55377122</v>
+        <v>26.864118</v>
       </c>
     </row>
     <row r="12">
@@ -1782,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97.544302</v>
+        <v>100.16343</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.32349963</v>
+        <v>46.180787</v>
       </c>
     </row>
     <row r="13">
@@ -1793,10 +1793,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>96.668415</v>
+        <v>100.19665</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.30725288</v>
+        <v>47.339947</v>
       </c>
     </row>
     <row r="14">
@@ -1804,10 +1804,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>96.65093</v>
+        <v>100.25593</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.19462031</v>
+        <v>57.37301</v>
       </c>
     </row>
     <row r="15">
@@ -1815,10 +1815,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>98.46418300000001</v>
+        <v>100.24592</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.23846103</v>
+        <v>52.728595</v>
       </c>
     </row>
     <row r="16">
@@ -1826,10 +1826,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>100.37112</v>
+        <v>100.33647</v>
       </c>
       <c r="C16" t="n">
-        <v>0.010425296</v>
+        <v>75.076756</v>
       </c>
     </row>
     <row r="17">
@@ -1837,10 +1837,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>99.75639700000001</v>
+        <v>100.36181</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0045420403</v>
+        <v>73.37270700000001</v>
       </c>
     </row>
     <row r="18">
@@ -1848,10 +1848,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>101.27991</v>
+        <v>100.37015</v>
       </c>
       <c r="C18" t="n">
-        <v>0.11245796</v>
+        <v>84.64978000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1859,10 +1859,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>102.28698</v>
+        <v>100.37529</v>
       </c>
       <c r="C19" t="n">
-        <v>0.15568568</v>
+        <v>88.739704</v>
       </c>
     </row>
     <row r="20">
@@ -1870,10 +1870,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>97.730524</v>
+        <v>100.43388</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.049753208</v>
+        <v>67.874061</v>
       </c>
     </row>
     <row r="21">
@@ -1881,10 +1881,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>95.968896</v>
+        <v>100.49655</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.052867267</v>
+        <v>66.71262900000001</v>
       </c>
     </row>
     <row r="22">
@@ -1892,10 +1892,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>101.60677</v>
+        <v>100.36222</v>
       </c>
       <c r="C22" t="n">
-        <v>0.15278689</v>
+        <v>88.745925</v>
       </c>
     </row>
     <row r="23">
@@ -1903,10 +1903,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>101.47829</v>
+        <v>100.36534</v>
       </c>
       <c r="C23" t="n">
-        <v>0.26075009</v>
+        <v>99.517383</v>
       </c>
     </row>
     <row r="24">
@@ -1914,10 +1914,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>95</v>
+        <v>100.53102</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0405</v>
+        <v>67.481842</v>
       </c>
     </row>
     <row r="25">
@@ -1925,10 +1925,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>99.628851</v>
+        <v>100.20433</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.16170749</v>
+        <v>59.701027</v>
       </c>
     </row>
     <row r="26">
@@ -1936,10 +1936,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>93.88168</v>
+        <v>100.6187</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>65.085774</v>
       </c>
     </row>
   </sheetData>
